--- a/数据整理/stocks/A股/深证主板/000726-鲁泰A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000726-鲁泰A.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,369 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000726-鲁泰A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000726-鲁泰A.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +1048,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.23</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000726-鲁泰A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000726-鲁泰A.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,95 +453,179 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000893</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银创新动力股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.03</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2321</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,7 +985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -909,51 +993,51 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金规模</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -968,22 +1052,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.60</t>
+          <t>82.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3541</t>
+          <t>0.2321</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -991,90 +1075,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000726-鲁泰A.xlsx
+++ b/数据整理/stocks/A股/深证主板/000726-鲁泰A.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -598,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>11.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.60</t>
+          <t>81.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3541</t>
+          <t>0.3791</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -626,6 +643,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -985,7 +1096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
